--- a/HWTest/TAB.xlsx
+++ b/HWTest/TAB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agnes\Documents\MAGISTRALE\C4uC\RotaryEncoderPinMapper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agnes\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A927CFD2-99F2-4D93-852F-7DA3B7E4650E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452343A1-5F1F-46B5-8E97-646BAB484B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{922256AF-2C6C-4FC5-B7D7-747898831A14}"/>
+    <workbookView xWindow="3048" yWindow="276" windowWidth="13212" windowHeight="9900" xr2:uid="{922256AF-2C6C-4FC5-B7D7-747898831A14}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -72,21 +72,6 @@
     <t>OUT</t>
   </si>
   <si>
-    <t>2 (PD0)</t>
-  </si>
-  <si>
-    <t>3 (PD1)</t>
-  </si>
-  <si>
-    <t>4 (PD2)</t>
-  </si>
-  <si>
-    <t>5 (PD3)</t>
-  </si>
-  <si>
-    <t>6 (PD4)</t>
-  </si>
-  <si>
     <t>HIGH when activated, LOW otherwise</t>
   </si>
   <si>
@@ -102,10 +87,25 @@
     <t>To Display</t>
   </si>
   <si>
-    <t>26 (PC3)</t>
-  </si>
-  <si>
-    <t>25 (PC2)</t>
+    <t>2 (PD2)</t>
+  </si>
+  <si>
+    <t>0 (PD0)</t>
+  </si>
+  <si>
+    <t>1 (PD1)</t>
+  </si>
+  <si>
+    <t>3 (PD3)</t>
+  </si>
+  <si>
+    <t>4 (PD4)</t>
+  </si>
+  <si>
+    <t>17 (PC3)</t>
+  </si>
+  <si>
+    <t>16 (PC2)</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,10 +514,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -531,10 +531,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -548,10 +548,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -565,10 +565,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -582,15 +582,15 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
@@ -602,12 +602,12 @@
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -619,7 +619,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
